--- a/results/FrequencyTables/26775808_sgRNA-7.xlsx
+++ b/results/FrequencyTables/26775808_sgRNA-7.xlsx
@@ -465,43 +465,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.00228310502283105</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.00076103500761035</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.00380517503805175</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.0015220700152207</v>
       </c>
       <c r="G2">
-        <v>0.0645161290322581</v>
+        <v>0.0395738203957382</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.0319634703196347</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.0205479452054795</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.0266362252663623</v>
       </c>
       <c r="K2">
-        <v>0.010752688172043</v>
+        <v>0.0136986301369863</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.0045662100456621</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.00989345509893455</v>
       </c>
       <c r="N2">
-        <v>1</v>
+        <v>0.994672754946728</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -513,25 +513,25 @@
         <v>0</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>0.00076103500761035</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>0.00076103500761035</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>0.0015220700152207</v>
       </c>
       <c r="U2">
-        <v>1</v>
+        <v>0.941400304414003</v>
       </c>
       <c r="V2">
-        <v>0.010752688172043</v>
+        <v>0.015220700152207</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>0.0060882800608828</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>0.015220700152207</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -539,37 +539,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.00989345509893455</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.00228310502283105</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.0030441400304414</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0.990867579908676</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.971080669710807</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.00837138508371385</v>
       </c>
       <c r="H3">
-        <v>0.989247311827957</v>
+        <v>0.950532724505327</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.0175038051750381</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.00076103500761035</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.00076103500761035</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -578,34 +578,34 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.99923896499239</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.00076103500761035</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>0.0045662100456621</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>0.00228310502283105</v>
       </c>
       <c r="S3">
-        <v>1</v>
+        <v>0.998477929984779</v>
       </c>
       <c r="T3">
-        <v>1</v>
+        <v>0.994672754946728</v>
       </c>
       <c r="U3">
         <v>0</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>0.0175038051750381</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>0.00837138508371385</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>0.0015220700152207</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -613,46 +613,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>0.0015220700152207</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.00076103500761035</v>
       </c>
       <c r="D4">
-        <v>0.010752688172043</v>
+        <v>0.00532724505327245</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.00076103500761035</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>0.00532724505327245</v>
       </c>
       <c r="G4">
-        <v>0.935483870967742</v>
+        <v>0.952054794520548</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.0015220700152207</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.968036529680365</v>
       </c>
       <c r="K4">
-        <v>0.989247311827957</v>
+        <v>0.985540334855403</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.993911719939117</v>
       </c>
       <c r="M4">
-        <v>1</v>
+        <v>0.989345509893455</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.0045662100456621</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.00076103500761035</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>0.0015220700152207</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -670,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>0.0563165905631659</v>
       </c>
       <c r="V4">
-        <v>0.989247311827957</v>
+        <v>0.95738203957382</v>
       </c>
       <c r="W4">
-        <v>1</v>
+        <v>0.971841704718417</v>
       </c>
       <c r="X4">
-        <v>1</v>
+        <v>0.979452054794521</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -687,31 +687,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0.986301369863014</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0.996955859969559</v>
       </c>
       <c r="D5">
-        <v>0.989247311827957</v>
+        <v>0.990867579908676</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.0045662100456621</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>0.0220700152207002</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.010752688172043</v>
+        <v>0.0159817351598174</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.961948249619482</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.00380517503805175</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -720,40 +720,40 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.00076103500761035</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.00076103500761035</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.99923896499239</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0.995433789954338</v>
       </c>
       <c r="R5">
-        <v>1</v>
+        <v>0.995433789954338</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>0.00076103500761035</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>0.00380517503805175</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>0.00228310502283105</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>0.00989345509893455</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>0.0136986301369863</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>0.00380517503805175</v>
       </c>
     </row>
   </sheetData>
